--- a/dataset-1/2-with_data_augmentation/results/genetic.xlsx
+++ b/dataset-1/2-with_data_augmentation/results/genetic.xlsx
@@ -423,13 +423,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.6666666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="C2">
         <v>0.8571428571428571</v>
       </c>
       <c r="D2">
-        <v>0.75</v>
+        <v>0.7058823529411764</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -437,13 +437,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="C3">
         <v>0.8571428571428571</v>
       </c>
       <c r="D3">
-        <v>0.7999999999999999</v>
+        <v>0.7058823529411764</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -465,13 +465,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D5">
-        <v>0.8235294117647058</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -479,13 +479,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.6666666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="C6">
         <v>0.8571428571428571</v>
       </c>
       <c r="D6">
-        <v>0.75</v>
+        <v>0.7058823529411764</v>
       </c>
     </row>
   </sheetData>
